--- a/backend/ExcelFiles/123.xlsx
+++ b/backend/ExcelFiles/123.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>الكود</t>
   </si>
@@ -34,133 +34,151 @@
     <t>115</t>
   </si>
   <si>
+    <t>علي محمد احمد صديق</t>
+  </si>
+  <si>
+    <t>ضابط</t>
+  </si>
+  <si>
+    <t>عقيد</t>
+  </si>
+  <si>
+    <t>203/2010</t>
+  </si>
+  <si>
+    <t>ا.ع للحماية المدنية</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>عصام اشرف</t>
+  </si>
+  <si>
+    <t>ملازم اول</t>
+  </si>
+  <si>
+    <t>٥١٢/٢٠٠٢</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>١٢٣٢١</t>
+  </si>
+  <si>
+    <t>ملازم</t>
+  </si>
+  <si>
+    <t>١٢٣١٢٣</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>12321</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>عبدالرحمن ١٢٣</t>
+  </si>
+  <si>
+    <t>نقيب</t>
+  </si>
+  <si>
+    <t>١٢٣</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Alaa Mohamed Nosser</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123332</t>
+  </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110023111</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>علاء محمد مصطفي</t>
   </si>
   <si>
-    <t>ضابط</t>
-  </si>
-  <si>
     <t>رائد</t>
   </si>
   <si>
-    <t>203/2010</t>
-  </si>
-  <si>
-    <t>ا.ع للحماية المدنية</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>عصام اشرف</t>
-  </si>
-  <si>
-    <t>ملازم اول</t>
-  </si>
-  <si>
-    <t>٥١٢/٢٠٠٢</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>١٢٣٢١</t>
-  </si>
-  <si>
-    <t>ملازم</t>
-  </si>
-  <si>
-    <t>١٢٣١٢٣</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>12321</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>12313</t>
-  </si>
-  <si>
-    <t>مدني</t>
-  </si>
-  <si>
-    <t>___</t>
-  </si>
-  <si>
-    <t>12312323</t>
-  </si>
-  <si>
-    <t>112312</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>1231231</t>
-  </si>
-  <si>
-    <t>فرد</t>
-  </si>
-  <si>
-    <t>رقيب</t>
-  </si>
-  <si>
-    <t>23123123</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>عبدالرحمن ١٢٣</t>
-  </si>
-  <si>
-    <t>نقيب</t>
-  </si>
-  <si>
-    <t>١٢٣</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Alaa Mohamed Nosser</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>123332</t>
-  </si>
-  <si>
-    <t>123123123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110023111</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>203/2017</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>12322312</t>
+  </si>
+  <si>
+    <t>hemaya</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>23e23e123123</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>23123123123</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>123123123213</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>123123213</t>
+  </si>
+  <si>
+    <t>12312312</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>123123123213123231</t>
   </si>
 </sst>
 </file>
@@ -206,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -320,53 +338,53 @@
         <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>11</v>
@@ -374,39 +392,39 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>11</v>
@@ -414,10 +432,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>8</v>
@@ -426,30 +444,130 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="F14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>11</v>
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/ExcelFiles/123.xlsx
+++ b/backend/ExcelFiles/123.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>الكود</t>
   </si>
@@ -22,34 +22,52 @@
     <t>الاسم</t>
   </si>
   <si>
-    <t>اللياقة بداية الفرقة</t>
-  </si>
-  <si>
-    <t>اللياقة اثناء الفرقة</t>
-  </si>
-  <si>
-    <t>اللياقة نهاية الفرقة</t>
-  </si>
-  <si>
-    <t>القوام بداية الفرقة</t>
-  </si>
-  <si>
-    <t>القوام نهاية الفرقة</t>
-  </si>
-  <si>
-    <t>الرماية بداية الفرقة</t>
-  </si>
-  <si>
-    <t>اختبار الرماية</t>
-  </si>
-  <si>
-    <t>السلوك</t>
-  </si>
-  <si>
-    <t>المواظبة</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>طلمبات سيارات الاطفاء2 (عملي) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء3 (نظري) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء4 (عملي) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء5 (نظري) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء6 (نظري) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء7 (نظري) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء8 (نظري) (50)</t>
+  </si>
+  <si>
+    <t>طلمبات سيارات الاطفاء9 (نظري) (50)</t>
+  </si>
+  <si>
+    <t>السلوك (نظري) (10)</t>
+  </si>
+  <si>
+    <t>المواظبة (نظري) (20)</t>
+  </si>
+  <si>
+    <t>اسلحة و رماية (عملي) (15)</t>
+  </si>
+  <si>
+    <t>بيان القوام</t>
+  </si>
+  <si>
+    <t>مجموع الدرجات النظري (330)</t>
+  </si>
+  <si>
+    <t>مجموع الدرجات العملي (115)</t>
+  </si>
+  <si>
+    <t>المجموع الكلي (445)</t>
+  </si>
+  <si>
+    <t>النسبة</t>
   </si>
   <si>
     <t>2426</t>
@@ -61,34 +79,100 @@
     <t>محمد اشرف روقا</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>زائد</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>57.5%</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>طالب</t>
+  </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
     <t>_</t>
   </si>
   <si>
-    <t>سمنة</t>
-  </si>
-  <si>
-    <t>زائد</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>64.0%</t>
+  </si>
+  <si>
+    <t>2435</t>
+  </si>
+  <si>
+    <t>weqweqwe</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2434</t>
-  </si>
-  <si>
-    <t>طالب</t>
-  </si>
-  <si>
-    <t>123123123</t>
-  </si>
-  <si>
-    <t>2435</t>
-  </si>
-  <si>
-    <t>weqweqwe</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>73.9%</t>
   </si>
   <si>
     <t>2436</t>
@@ -140,13 +224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -186,157 +270,259 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:19">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>16</v>
+      <c r="J4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:19">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
